--- a/Mifos Automation Excels/Client/3131-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3131-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -156,12 +156,6 @@
     <t>L5</t>
   </si>
   <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
-    <t>$ 936.76</t>
-  </si>
-  <si>
     <t>$ 50.96</t>
   </si>
   <si>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>$ 896.09</t>
+  </si>
+  <si>
+    <t>$ 836.76</t>
+  </si>
+  <si>
+    <t>Income from penalties(7)</t>
+  </si>
+  <si>
+    <t>$ 8.37</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -626,15 +632,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -650,7 +656,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="A7" sqref="A7:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +750,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>200</v>
+        <v>16.86</v>
       </c>
       <c r="B5" s="6">
-        <v>100</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -756,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>100</v>
+        <v>8.49</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>8.49</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +779,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:XFD11"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +795,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -871,6 +877,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -900,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="K3" s="6">
-        <v>887.72</v>
+        <v>896.09</v>
       </c>
       <c r="L3" s="6">
-        <v>887.72</v>
+        <v>896.09</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -946,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>100</v>
+        <v>8.49</v>
       </c>
       <c r="K4" s="6">
-        <v>987.72</v>
+        <v>896.21</v>
       </c>
       <c r="L4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -964,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>887.72</v>
+        <v>896.21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -992,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1010,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1162,7 +1169,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1221,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1226,10 +1233,10 @@
         <v>39</v>
       </c>
       <c r="E2" s="6">
-        <v>987.72</v>
+        <v>896.09</v>
       </c>
       <c r="F2" s="6">
-        <v>936.76</v>
+        <v>836.76</v>
       </c>
       <c r="G2" s="6">
         <v>50.96</v>
@@ -1238,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="J2" s="9">
         <v>4163.24</v>
@@ -1248,7 +1255,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1289,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
@@ -1385,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A8" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1444,7 @@
       <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1453,7 +1460,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,7 +1470,7 @@
       <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -1479,7 +1486,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,23 +1496,49 @@
       <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>45</v>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3131-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3131-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +797,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,17 +843,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -879,8 +881,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -918,17 +921,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -964,17 +968,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>896.21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1010,17 +1015,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1056,17 +1062,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1102,17 +1109,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1148,13 +1156,14 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1296,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
